--- a/example/SunnyTangDuCodeGenerationTest.xlsx
+++ b/example/SunnyTangDuCodeGenerationTest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kotlin\Workspace\SunnyTangDuCodeGeneration\build\libs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kotlin\Workspace\SunnyTangDuCodeGeneration\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016D1F0A-6374-4435-80A3-A4EDF7A9B5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C0E2CC-9EEF-4F7E-BA4D-AF60BFBACD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="178">
   <si>
     <t>地址（十六进制）</t>
   </si>
@@ -155,12 +155,6 @@
   </si>
   <si>
     <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>1A</t>
   </si>
   <si>
     <t>JUM START</t>
@@ -961,7 +955,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1034,281 +1028,202 @@
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>37</v>
@@ -1316,15 +1231,15 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>26</v>
@@ -1332,15 +1247,15 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>15</v>
@@ -1374,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -1385,10 +1300,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1396,10 +1311,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1407,10 +1322,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1418,10 +1333,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1429,10 +1344,10 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1440,10 +1355,10 @@
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1451,10 +1366,10 @@
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1462,10 +1377,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1473,10 +1388,10 @@
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1484,10 +1399,10 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -1495,10 +1410,10 @@
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -1506,10 +1421,10 @@
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -1517,10 +1432,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -1528,10 +1443,10 @@
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -1539,10 +1454,10 @@
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -1550,10 +1465,10 @@
         <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -1561,10 +1476,10 @@
         <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -1572,10 +1487,10 @@
         <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -1583,10 +1498,10 @@
         <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -1594,10 +1509,10 @@
         <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -1605,10 +1520,10 @@
         <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -1616,10 +1531,10 @@
         <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -1627,10 +1542,10 @@
         <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -1638,340 +1553,340 @@
         <v>40</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1983,6 +1898,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -2000,16 +1923,8 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2018,7 +1933,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/example/SunnyTangDuCodeGenerationTest.xlsx
+++ b/example/SunnyTangDuCodeGenerationTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kotlin\Workspace\SunnyTangDuCodeGeneration\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C0E2CC-9EEF-4F7E-BA4D-AF60BFBACD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AD3BF5-37AD-44F4-986F-F3BD169D60E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,9 +157,6 @@
     <t>18</t>
   </si>
   <si>
-    <t>JUM START</t>
-  </si>
-  <si>
     <t>跳转至START</t>
   </si>
   <si>
@@ -566,6 +563,10 @@
   </si>
   <si>
     <t>PC-&gt;AR, PC加1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JMP START</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1031,11 +1032,11 @@
       <c r="B6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1051,13 +1052,13 @@
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -1140,90 +1141,90 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>37</v>
@@ -1231,15 +1232,15 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>26</v>
@@ -1247,15 +1248,15 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>15</v>
@@ -1273,7 +1274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
@@ -1289,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -1300,10 +1301,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1311,10 +1312,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1322,10 +1323,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1333,10 +1334,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1344,10 +1345,10 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1355,10 +1356,10 @@
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1366,10 +1367,10 @@
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1377,10 +1378,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1388,10 +1389,10 @@
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1399,10 +1400,10 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -1410,10 +1411,10 @@
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -1421,10 +1422,10 @@
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -1432,10 +1433,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -1443,10 +1444,10 @@
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -1454,10 +1455,10 @@
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -1465,10 +1466,10 @@
         <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -1476,10 +1477,10 @@
         <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -1487,10 +1488,10 @@
         <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -1498,10 +1499,10 @@
         <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -1509,10 +1510,10 @@
         <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -1520,10 +1521,10 @@
         <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -1531,10 +1532,10 @@
         <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -1542,10 +1543,10 @@
         <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -1553,340 +1554,340 @@
         <v>40</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="C36" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="C38" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="C41" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="C42" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="C43" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="C45" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="C46" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="C47" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="C48" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="C49" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="C50" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="C52" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="C53" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="C54" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1898,14 +1899,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -1923,8 +1916,16 @@
 </woProps>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -1933,7 +1934,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
